--- a/files/OOP - report/אלגוריתם 2.xlsx
+++ b/files/OOP - report/אלגוריתם 2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcaspi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mixmind\eclipse-workspace\OOP matala\files\OOP - report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17267" windowHeight="5447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,8 +95,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +113,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +135,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -137,16 +150,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -163,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,16 +474,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
@@ -475,7 +491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -497,6 +513,11 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="N3" t="s">
         <v>0</v>
       </c>
@@ -519,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>42740.491666666669</v>
       </c>
@@ -541,10 +562,18 @@
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="3">
+        <f>ABS(C4:C36 - P4:P36)</f>
+        <v>2.1160087270288841E-4</v>
+      </c>
+      <c r="K4" s="3">
+        <f>ABS(D4:D36 - Q4:Q36)</f>
+        <v>2.7503791930172383E-4</v>
+      </c>
+      <c r="L4" s="3">
+        <f>ABS(E4:E36 - R4:R36)</f>
+        <v>5.3580828410390495</v>
+      </c>
       <c r="N4" s="1">
         <v>43074.491666666669</v>
       </c>
@@ -567,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>42740.491666666669</v>
       </c>
@@ -589,12 +618,18 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="J5" s="3">
+        <f t="shared" ref="J5:L5" si="0">ABS(C5:C37 - P5:P37)</f>
+        <v>2.7506930670284646E-4</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2052275100986662E-5</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2489223134549547</v>
+      </c>
       <c r="N5" s="1">
         <v>43074.491666666669</v>
       </c>
@@ -617,7 +652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>42740.491666666669</v>
       </c>
@@ -639,17 +674,16 @@
       <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="J6" s="3">
-        <f>ABS(C4:C36 - P4:P36)</f>
+        <f t="shared" ref="J6:L6" si="1">ABS(C6:C38 - P6:P38)</f>
         <v>3.5041738809837852E-4</v>
       </c>
       <c r="K6" s="3">
-        <f>ABS(D4:D36 - Q4:Q36)</f>
+        <f t="shared" si="1"/>
         <v>3.4756761110088519E-4</v>
       </c>
       <c r="L6" s="3">
-        <f>ABS(E4:E36 - R4:R36)</f>
+        <f t="shared" si="1"/>
         <v>10.13778562357902</v>
       </c>
       <c r="N6" s="1">
@@ -674,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>42740.491666666669</v>
       </c>
@@ -696,10 +730,18 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="3">
+        <f t="shared" ref="J7:L7" si="2">ABS(C7:C39 - P7:P39)</f>
+        <v>6.3937514109824178E-4</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7462150584037772E-3</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0655264191849483</v>
+      </c>
       <c r="N7" s="1">
         <v>43074.491666666669</v>
       </c>
@@ -722,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>42740.491666666669</v>
       </c>
@@ -744,6 +786,18 @@
       <c r="G8" t="s">
         <v>9</v>
       </c>
+      <c r="J8" s="3">
+        <f t="shared" ref="J8:L8" si="3">ABS(C8:C40 - P8:P40)</f>
+        <v>2.2819763769632573E-4</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="3"/>
+        <v>6.3383226901692069E-5</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="3"/>
+        <v>6.3332144513669846</v>
+      </c>
       <c r="N8" s="1">
         <v>43074.491666666669</v>
       </c>
@@ -766,7 +820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>42740.491666666669</v>
       </c>
@@ -788,6 +842,18 @@
       <c r="G9" t="s">
         <v>10</v>
       </c>
+      <c r="J9" s="3">
+        <f t="shared" ref="J9:L9" si="4">ABS(C9:C41 - P9:P41)</f>
+        <v>3.7345524049925416E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="4"/>
+        <v>8.6866227309911892E-4</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99534498536297633</v>
+      </c>
       <c r="N9" s="1">
         <v>43074.491666666669</v>
       </c>
@@ -810,7 +876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>42740.491666666669</v>
       </c>
@@ -832,6 +898,18 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
+      <c r="J10" s="3">
+        <f t="shared" ref="J10:L10" si="5">ABS(C10:C42 - P10:P42)</f>
+        <v>6.4814176795380263E-5</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8085029189669513E-4</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="5"/>
+        <v>2.964210720297956</v>
+      </c>
       <c r="N10" s="1">
         <v>43074.491666666669</v>
       </c>
@@ -854,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>42740.491666666669</v>
       </c>
@@ -876,6 +954,18 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
+      <c r="J11" s="3">
+        <f t="shared" ref="J11:L11" si="6">ABS(C11:C43 - P11:P43)</f>
+        <v>2.2903268970253521E-6</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="6"/>
+        <v>2.6835285500226291E-4</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="6"/>
+        <v>12.21718450309902</v>
+      </c>
       <c r="N11" s="1">
         <v>43074.491666666669</v>
       </c>
@@ -898,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>42740.491666666669</v>
       </c>
@@ -920,6 +1010,18 @@
       <c r="G12" t="s">
         <v>9</v>
       </c>
+      <c r="J12" s="3">
+        <f t="shared" ref="J12:L12" si="7">ABS(C12:C44 - P12:P44)</f>
+        <v>1.2649222639993241E-4</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="7"/>
+        <v>4.8952276680580553E-4</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="7"/>
+        <v>2.3876259894329905</v>
+      </c>
       <c r="N12" s="1">
         <v>43074.491666666669</v>
       </c>
@@ -942,7 +1044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -964,6 +1066,18 @@
       <c r="G13" t="s">
         <v>10</v>
       </c>
+      <c r="J13" s="3">
+        <f t="shared" ref="J13:L13" si="8">ABS(C13:C45 - P13:P45)</f>
+        <v>7.6169416693971925E-5</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="8"/>
+        <v>3.0249067904719595E-5</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="8"/>
+        <v>2.9327074640219735</v>
+      </c>
       <c r="N13" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -986,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1008,6 +1122,18 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
+      <c r="J14" s="3">
+        <f t="shared" ref="J14:L14" si="9">ABS(C14:C46 - P14:P46)</f>
+        <v>2.3634278710460421E-4</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="9"/>
+        <v>3.6848913660492144E-4</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3520755975910106</v>
+      </c>
       <c r="N14" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1030,7 +1156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1052,6 +1178,18 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
+      <c r="J15" s="3">
+        <f t="shared" ref="J15:L15" si="10">ABS(C15:C47 - P15:P47)</f>
+        <v>2.3679756179717515E-4</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="10"/>
+        <v>5.5782644103885559E-5</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6458628430809767</v>
+      </c>
       <c r="N15" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1074,7 +1212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1096,6 +1234,18 @@
       <c r="G16" t="s">
         <v>9</v>
       </c>
+      <c r="J16" s="3">
+        <f t="shared" ref="J16:L16" si="11">ABS(C16:C48 - P16:P48)</f>
+        <v>3.0282937250092345E-4</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="11"/>
+        <v>6.1615090429967267E-4</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="11"/>
+        <v>0.22453760182895621</v>
+      </c>
       <c r="N16" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1118,7 +1268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1140,6 +1290,18 @@
       <c r="G17" t="s">
         <v>10</v>
       </c>
+      <c r="J17" s="3">
+        <f t="shared" ref="J17:L17" si="12">ABS(C17:C49 - P17:P49)</f>
+        <v>2.1737613619876583E-4</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="12"/>
+        <v>7.0712269450012855E-4</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="12"/>
+        <v>11.887300374123015</v>
+      </c>
       <c r="N17" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1162,7 +1324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1184,6 +1346,18 @@
       <c r="G18" t="s">
         <v>13</v>
       </c>
+      <c r="J18" s="3">
+        <f t="shared" ref="J18:L18" si="13">ABS(C18:C50 - P18:P50)</f>
+        <v>3.067044876985392E-4</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4333437990218272E-4</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="13"/>
+        <v>6.860591946393015</v>
+      </c>
       <c r="N18" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1206,7 +1380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1228,6 +1402,18 @@
       <c r="G19" t="s">
         <v>9</v>
       </c>
+      <c r="J19" s="3">
+        <f t="shared" ref="J19:L19" si="14">ABS(C19:C51 - P19:P51)</f>
+        <v>7.3950631299624092E-4</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="14"/>
+        <v>6.8780551710290183E-4</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="14"/>
+        <v>12.842186679173892</v>
+      </c>
       <c r="N19" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1250,7 +1436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1272,6 +1458,18 @@
       <c r="G20" t="s">
         <v>14</v>
       </c>
+      <c r="J20" s="3">
+        <f t="shared" ref="J20:L20" si="15">ABS(C20:C52 - P20:P52)</f>
+        <v>2.0461818301953372E-5</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="15"/>
+        <v>3.9178222195346279E-5</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="15"/>
+        <v>5.2077839892859856</v>
+      </c>
       <c r="N20" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1294,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1316,6 +1514,18 @@
       <c r="G21" t="s">
         <v>9</v>
       </c>
+      <c r="J21" s="3">
+        <f t="shared" ref="J21:L21" si="16">ABS(C21:C53 - P21:P53)</f>
+        <v>5.208918190007239E-4</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="16"/>
+        <v>4.099105703048167E-4</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="16"/>
+        <v>6.4601793825889899</v>
+      </c>
       <c r="N21" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1338,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1360,6 +1570,18 @@
       <c r="G22" t="s">
         <v>9</v>
       </c>
+      <c r="J22" s="3">
+        <f t="shared" ref="J22:L22" si="17">ABS(C22:C54 - P22:P54)</f>
+        <v>4.2967190701403979E-5</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="17"/>
+        <v>1.3409658370022726E-4</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="17"/>
+        <v>15.122295030892928</v>
+      </c>
       <c r="N22" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1382,7 +1604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1404,6 +1626,18 @@
       <c r="G23" t="s">
         <v>10</v>
       </c>
+      <c r="J23" s="3">
+        <f t="shared" ref="J23:L23" si="18">ABS(C23:C55 - P23:P55)</f>
+        <v>1.6873150039486973E-4</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="18"/>
+        <v>2.8215861259894837E-4</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="18"/>
+        <v>4.0174885394769717</v>
+      </c>
       <c r="N23" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1426,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1448,6 +1682,18 @@
       <c r="G24" t="s">
         <v>10</v>
       </c>
+      <c r="J24" s="3">
+        <f t="shared" ref="J24:L24" si="19">ABS(C24:C56 - P24:P56)</f>
+        <v>3.4169221189728205E-4</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="19"/>
+        <v>7.7267873319897262E-4</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="19"/>
+        <v>2.4998740156579515</v>
+      </c>
       <c r="N24" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1470,7 +1716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1492,6 +1738,18 @@
       <c r="G25" t="s">
         <v>15</v>
       </c>
+      <c r="J25" s="3">
+        <f t="shared" ref="J25:L25" si="20">ABS(C25:C57 - P25:P57)</f>
+        <v>1.0482618300500235E-5</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="20"/>
+        <v>6.9128117701211522E-5</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="20"/>
+        <v>0.94131725067904881</v>
+      </c>
       <c r="N25" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1514,7 +1772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1536,6 +1794,18 @@
       <c r="G26" t="s">
         <v>10</v>
       </c>
+      <c r="J26" s="3">
+        <f t="shared" ref="J26:L26" si="21">ABS(C26:C58 - P26:P58)</f>
+        <v>3.7732885800778604E-5</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="21"/>
+        <v>1.0047567810289593E-4</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="21"/>
+        <v>4.4685407028719055</v>
+      </c>
       <c r="N26" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1558,7 +1828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>42740.492361111108</v>
       </c>
@@ -1580,6 +1850,18 @@
       <c r="G27" t="s">
         <v>9</v>
       </c>
+      <c r="J27" s="3">
+        <f t="shared" ref="J27:L27" si="22">ABS(C27:C59 - P27:P59)</f>
+        <v>5.303269959000545E-4</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="22"/>
+        <v>5.7365077049809088E-4</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="22"/>
+        <v>2.7005054349809825</v>
+      </c>
       <c r="N27" s="1">
         <v>43074.492361111108</v>
       </c>
@@ -1602,7 +1884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>42740.493055555555</v>
       </c>
@@ -1624,6 +1906,18 @@
       <c r="G28" t="s">
         <v>16</v>
       </c>
+      <c r="J28" s="3">
+        <f t="shared" ref="J28:L28" si="23">ABS(C28:C60 - P28:P60)</f>
+        <v>2.6202050470658378E-4</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="23"/>
+        <v>8.0831679703408099E-5</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="23"/>
+        <v>1.5972858122719344</v>
+      </c>
       <c r="N28" s="1">
         <v>43074.493055555555</v>
       </c>
@@ -1646,7 +1940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>42740.493055555555</v>
       </c>
@@ -1668,6 +1962,18 @@
       <c r="G29" t="s">
         <v>9</v>
       </c>
+      <c r="J29" s="3">
+        <f t="shared" ref="J29:L29" si="24">ABS(C29:C61 - P29:P61)</f>
+        <v>1.2778696349613483E-4</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="24"/>
+        <v>1.3607593199793655E-4</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="24"/>
+        <v>0.19971407105094841</v>
+      </c>
       <c r="N29" s="1">
         <v>43074.493055555555</v>
       </c>
@@ -1690,7 +1996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>42740.493055555555</v>
       </c>
@@ -1712,6 +2018,18 @@
       <c r="G30" t="s">
         <v>9</v>
       </c>
+      <c r="J30" s="3">
+        <f t="shared" ref="J30:L30" si="25">ABS(C30:C62 - P30:P62)</f>
+        <v>1.1491274640462734E-4</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="25"/>
+        <v>1.468425970330145E-5</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="25"/>
+        <v>4.6144390418349985</v>
+      </c>
       <c r="N30" s="1">
         <v>43074.493055555555</v>
       </c>
@@ -1734,7 +2052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>42740.493055555555</v>
       </c>
@@ -1756,6 +2074,18 @@
       <c r="G31" t="s">
         <v>10</v>
       </c>
+      <c r="J31" s="3">
+        <f t="shared" ref="J31:L31" si="26">ABS(C31:C63 - P31:P63)</f>
+        <v>5.4116659020309044E-4</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="26"/>
+        <v>4.6828268860110711E-4</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="26"/>
+        <v>1.7640812679919691</v>
+      </c>
       <c r="N31" s="1">
         <v>43074.493055555555</v>
       </c>
@@ -1778,7 +2108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>42740.493055555555</v>
       </c>
@@ -1800,6 +2130,18 @@
       <c r="G32" t="s">
         <v>9</v>
       </c>
+      <c r="J32" s="3">
+        <f t="shared" ref="J32:L32" si="27">ABS(C32:C64 - P32:P64)</f>
+        <v>32.1025232821369</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="27"/>
+        <v>35.207323309149302</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="27"/>
+        <v>698.63501509066396</v>
+      </c>
       <c r="N32" s="1">
         <v>43074.493055555555</v>
       </c>
@@ -1822,7 +2164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>42740.493055555555</v>
       </c>
@@ -1844,6 +2186,18 @@
       <c r="G33" t="s">
         <v>17</v>
       </c>
+      <c r="J33" s="3">
+        <f t="shared" ref="J33:L33" si="28">ABS(C33:C65 - P33:P65)</f>
+        <v>3.7990270369903101E-4</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="28"/>
+        <v>3.1886903229860764E-4</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="28"/>
+        <v>2.064050007852984</v>
+      </c>
       <c r="N33" s="1">
         <v>43074.493055555555</v>
       </c>
@@ -1866,7 +2220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>42740.493055555555</v>
       </c>
@@ -1888,6 +2242,18 @@
       <c r="G34" t="s">
         <v>10</v>
       </c>
+      <c r="J34" s="3">
+        <f t="shared" ref="J34:L34" si="29">ABS(C34:C66 - P34:P66)</f>
+        <v>8.2249484023577679E-6</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="29"/>
+        <v>1.8572878600053855E-4</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="29"/>
+        <v>2.177480945149</v>
+      </c>
       <c r="N34" s="1">
         <v>43074.493055555555</v>
       </c>
@@ -1910,7 +2276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>42740.493055555555</v>
       </c>
@@ -1932,6 +2298,18 @@
       <c r="G35" t="s">
         <v>18</v>
       </c>
+      <c r="J35" s="3">
+        <f t="shared" ref="J35:L35" si="30">ABS(C35:C67 - P35:P67)</f>
+        <v>3.9966490902543228E-5</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="30"/>
+        <v>1.6562312839596416E-4</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="30"/>
+        <v>3.7262528164050082</v>
+      </c>
       <c r="N35" s="1">
         <v>43074.493055555555</v>
       </c>
@@ -1954,7 +2332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>42740.493055555555</v>
       </c>
@@ -1975,6 +2353,18 @@
       </c>
       <c r="G36" t="s">
         <v>9</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" ref="J36:L36" si="31">ABS(C36:C68 - P36:P68)</f>
+        <v>5.8959684899662079E-5</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="31"/>
+        <v>1.1262241379483839E-4</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="31"/>
+        <v>1.6939033201489337</v>
       </c>
       <c r="N36" s="1">
         <v>43074.493055555555</v>

--- a/files/OOP - report/אלגוריתם 2.xlsx
+++ b/files/OOP - report/אלגוריתם 2.xlsx
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +121,144 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +276,176 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -149,21 +453,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Accent2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Accent3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Accent4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Accent5 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Accent6 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Bad 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Calculation 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Check Cell 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Good" xfId="1" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Heading 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Heading 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Heading 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Input 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Neutral 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Note 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Output 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Title 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Total 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Warning Text 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -541,25 +1036,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>42740.491666666669</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
         <v>32.103103890641599</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>35.209716744638101</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>697.71021844727898</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="3">
@@ -597,25 +1092,25 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>42740.491666666669</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
         <v>32.103382346773799</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>35.2094826765737</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>700.41496670473498</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="3">
@@ -653,25 +1148,25 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>42740.491666666669</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
         <v>32.103618198646998</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>35.209706839287598</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>711.24031288506501</v>
       </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="5">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="3">
@@ -709,25 +1204,25 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>42740.491666666669</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
         <v>32.1034255</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>35.209786960000002</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>702</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="3">
@@ -765,25 +1260,25 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>42740.491666666669</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
         <v>32.103546311829902</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>35.209494179207901</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>692.644901249496</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="3">
@@ -821,38 +1316,38 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>42740.491666666669</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>32.103405188339302</v>
-      </c>
-      <c r="D9">
-        <v>35.209805676094</v>
-      </c>
-      <c r="E9">
-        <v>701.02112478644904</v>
-      </c>
-      <c r="F9">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>32.1038826495572</v>
+      </c>
+      <c r="D9" s="5">
+        <v>35.208927345755598</v>
+      </c>
+      <c r="E9" s="5">
+        <v>708.41160977253503</v>
+      </c>
+      <c r="F9" s="5">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" ref="J9:L9" si="4">ABS(C9:C41 - P9:P41)</f>
-        <v>3.7345524049925416E-4</v>
+        <v>1.0400597739845807E-4</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="4"/>
-        <v>8.6866227309911892E-4</v>
+        <v>9.6680653030034591E-6</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="4"/>
-        <v>0.99534498536297633</v>
+        <v>6.3951400007230177</v>
       </c>
       <c r="N9" s="1">
         <v>43074.491666666669</v>
@@ -877,25 +1372,25 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>42740.491666666669</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
         <v>32.103512379769398</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>35.2092224593545</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>699.766138587147</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="3">
@@ -933,38 +1428,38 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>42740.491666666669</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>32.1036602972707</v>
-      </c>
-      <c r="D11">
-        <v>35.2091735444995</v>
-      </c>
-      <c r="E11">
-        <v>704.636604616765</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>32.103623468981901</v>
+      </c>
+      <c r="D11" s="5">
+        <v>35.208752894300702</v>
+      </c>
+      <c r="E11" s="5">
+        <v>691.46628323998596</v>
+      </c>
+      <c r="F11" s="5">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" ref="J11:L11" si="6">ABS(C11:C43 - P11:P43)</f>
-        <v>2.2903268970253521E-6</v>
+        <v>3.4537961902003644E-5</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="6"/>
-        <v>2.6835285500226291E-4</v>
+        <v>1.5229734379573756E-4</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="6"/>
-        <v>12.21718450309902</v>
+        <v>0.9531368736800232</v>
       </c>
       <c r="N11" s="1">
         <v>43074.491666666669</v>
@@ -989,25 +1484,25 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>42740.491666666669</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5">
         <v>32.1036047378905</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>35.209151708245997</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>701.99331625240904</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="3">
@@ -1045,38 +1540,38 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>32.103453821083697</v>
-      </c>
-      <c r="D13">
-        <v>35.209823653041603</v>
-      </c>
-      <c r="E13">
-        <v>700.11087823777405</v>
-      </c>
-      <c r="F13">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5">
+        <v>32.1033853084353</v>
+      </c>
+      <c r="D13" s="5">
+        <v>35.209794453267399</v>
+      </c>
+      <c r="E13" s="5">
+        <v>704.78519036464002</v>
+      </c>
+      <c r="F13" s="5">
         <v>6</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" ref="J13:L13" si="8">ABS(C13:C45 - P13:P45)</f>
-        <v>7.6169416693971925E-5</v>
+        <v>7.6567682967265682E-6</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="8"/>
-        <v>3.0249067904719595E-5</v>
+        <v>1.0492937008166336E-6</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="8"/>
-        <v>2.9327074640219735</v>
+        <v>1.7416046628439972</v>
       </c>
       <c r="N13" s="1">
         <v>43074.492361111108</v>
@@ -1101,25 +1596,25 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
         <v>32.103359010369402</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>35.208399458772497</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>699.588931484314</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="3">
@@ -1157,25 +1652,25 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
         <v>32.103549173393702</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>35.208951403622102</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>705.40945973692703</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>4</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="3">
@@ -1213,25 +1708,25 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5">
         <v>32.103931825215703</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>35.208924977095599</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>698.33287991218299</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>3</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="3">
@@ -1269,38 +1764,38 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>32.104021108950299</v>
-      </c>
-      <c r="D17">
-        <v>35.208958989153402</v>
-      </c>
-      <c r="E17">
-        <v>708.64204849544205</v>
-      </c>
-      <c r="F17">
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5">
+        <v>32.104090661826497</v>
+      </c>
+      <c r="D17" s="5">
+        <v>35.208326233541896</v>
+      </c>
+      <c r="E17" s="5">
+        <v>696.41511291692098</v>
+      </c>
+      <c r="F17" s="5">
         <v>3</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" ref="J17:L17" si="12">ABS(C17:C49 - P17:P49)</f>
-        <v>2.1737613619876583E-4</v>
+        <v>2.8692901239679713E-4</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="12"/>
-        <v>7.0712269450012855E-4</v>
+        <v>7.4367082994797329E-5</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="12"/>
-        <v>11.887300374123015</v>
+        <v>0.33963520439806416</v>
       </c>
       <c r="N17" s="1">
         <v>43074.492361111108</v>
@@ -1325,38 +1820,38 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>32.1038584178715</v>
-      </c>
-      <c r="D18">
-        <v>35.208903701973703</v>
-      </c>
-      <c r="E18">
-        <v>707.10824914028103</v>
-      </c>
-      <c r="F18">
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5">
+        <v>32.103790010734599</v>
+      </c>
+      <c r="D18" s="5">
+        <v>35.208867219420199</v>
+      </c>
+      <c r="E18" s="5">
+        <v>709.62794513652898</v>
+      </c>
+      <c r="F18" s="5">
         <v>2</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" ref="J18:L18" si="13">ABS(C18:C50 - P18:P50)</f>
-        <v>3.067044876985392E-4</v>
+        <v>2.3829735079772263E-4</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="13"/>
-        <v>4.4333437990218272E-4</v>
+        <v>4.068518263977694E-4</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="13"/>
-        <v>6.860591946393015</v>
+        <v>9.3802879426409618</v>
       </c>
       <c r="N18" s="1">
         <v>43074.492361111108</v>
@@ -1381,25 +1876,25 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5">
         <v>32.103754965846903</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>35.209654929747401</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>707.04015144034395</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>3</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J19" s="3">
@@ -1437,25 +1932,25 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5">
         <v>32.103864203376503</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>35.209134216502598</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>691.09774182454305</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="3">
@@ -1493,25 +1988,25 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5">
         <v>32.1039473895542</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>35.209036498682998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>689.04147736362597</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>3</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J21" s="3">
@@ -1549,38 +2044,38 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>32.104060348187801</v>
-      </c>
-      <c r="D22">
-        <v>35.209199052392599</v>
-      </c>
-      <c r="E22">
-        <v>688.73194050082702</v>
-      </c>
-      <c r="F22">
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5">
+        <v>32.103927845999799</v>
+      </c>
+      <c r="D22" s="5">
+        <v>35.208994350086101</v>
+      </c>
+      <c r="E22" s="5">
+        <v>689.35793155637305</v>
+      </c>
+      <c r="F22" s="5">
         <v>6</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" ref="J22:L22" si="17">ABS(C22:C54 - P22:P54)</f>
-        <v>4.2967190701403979E-5</v>
+        <v>8.9534997300688701E-5</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="17"/>
-        <v>1.3409658370022726E-4</v>
+        <v>3.3879889019772236E-4</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="17"/>
-        <v>15.122295030892928</v>
+        <v>14.496303975346905</v>
       </c>
       <c r="N22" s="1">
         <v>43074.492361111108</v>
@@ -1605,25 +2100,25 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5">
         <v>32.104182539883404</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>35.2092322628788</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>699.39354919653499</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>4</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="3">
@@ -1661,25 +2156,25 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A24" s="1">
+      <c r="A24" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5">
         <v>32.103914034650401</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>35.210067943485498</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>699.165089136397</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>5</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="3">
@@ -1717,38 +2212,38 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>32.104509512089201</v>
-      </c>
-      <c r="D25">
-        <v>35.209851341897</v>
-      </c>
-      <c r="E25">
-        <v>689.48687063551904</v>
-      </c>
-      <c r="F25">
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5">
+        <v>32.104686400895197</v>
+      </c>
+      <c r="D25" s="5">
+        <v>35.209966056238898</v>
+      </c>
+      <c r="E25" s="5">
+        <v>687.27952443041704</v>
+      </c>
+      <c r="F25" s="5">
         <v>2</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" ref="J25:L25" si="20">ABS(C25:C57 - P25:P57)</f>
-        <v>1.0482618300500235E-5</v>
+        <v>1.6640618769514504E-4</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="20"/>
-        <v>6.9128117701211522E-5</v>
+        <v>1.8384245959879308E-4</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="20"/>
-        <v>0.94131725067904881</v>
+        <v>1.2660289544229499</v>
       </c>
       <c r="N25" s="1">
         <v>43074.492361111108</v>
@@ -1773,25 +2268,25 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5">
         <v>32.104111004473701</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>35.209213813312203</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>715.25950388059096</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>2</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J26" s="3">
@@ -1829,25 +2324,25 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>42740.492361111108</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5">
         <v>32.104164025435203</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>35.209083648723798</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>691.39658616556198</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="3">
@@ -1885,38 +2380,38 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>42740.493055555555</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>32.103534301840597</v>
-      </c>
-      <c r="D28">
-        <v>35.209709238880002</v>
-      </c>
-      <c r="E28">
-        <v>703.59465261896503</v>
-      </c>
-      <c r="F28">
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5">
+        <v>32.103433214369801</v>
+      </c>
+      <c r="D28" s="5">
+        <v>35.209777661199901</v>
+      </c>
+      <c r="E28" s="5">
+        <v>701.71124457641395</v>
+      </c>
+      <c r="F28" s="5">
         <v>2</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" ref="J28:L28" si="23">ABS(C28:C60 - P28:P60)</f>
-        <v>2.6202050470658378E-4</v>
+        <v>3.6310797550243024E-4</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="23"/>
-        <v>8.0831679703408099E-5</v>
+        <v>1.4925399960219465E-4</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="23"/>
-        <v>1.5972858122719344</v>
+        <v>3.4806938548230164</v>
       </c>
       <c r="N28" s="1">
         <v>43074.493055555555</v>
@@ -1941,25 +2436,25 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <v>42740.493055555555</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5">
         <v>32.103826572493404</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>35.208983480418901</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>690.15116034745097</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <v>4</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J29" s="3">
@@ -1997,38 +2492,38 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>42740.493055555555</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>32.104323526073301</v>
-      </c>
-      <c r="D30">
-        <v>35.2092968564804</v>
-      </c>
-      <c r="E30">
-        <v>696.41134641143697</v>
-      </c>
-      <c r="F30">
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5">
+        <v>32.104256226004601</v>
+      </c>
+      <c r="D30" s="5">
+        <v>35.209150722134801</v>
+      </c>
+      <c r="E30" s="5">
+        <v>694.00148856779595</v>
+      </c>
+      <c r="F30" s="5">
         <v>4</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" ref="J30:L30" si="25">ABS(C30:C62 - P30:P62)</f>
-        <v>1.1491274640462734E-4</v>
+        <v>4.7612677704478301E-5</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="25"/>
-        <v>1.468425970330145E-5</v>
+        <v>1.6081860530192671E-4</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="25"/>
-        <v>4.6144390418349985</v>
+        <v>7.0242968854760193</v>
       </c>
       <c r="N30" s="1">
         <v>43074.493055555555</v>
@@ -2053,25 +2548,25 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>42740.493055555555</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5">
         <v>32.104281644617103</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>35.2084451469443</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>699.32350612105597</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <v>2</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J31" s="3">
@@ -2109,25 +2604,25 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>42740.493055555555</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5">
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="5">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J32" s="3">
@@ -2165,25 +2660,25 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A33" s="1">
+      <c r="A33" s="6">
         <v>42740.493055555555</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5">
         <v>32.103941666769799</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>35.208466874348296</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>691.99634918653396</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="5">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="3">
@@ -2221,25 +2716,25 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <v>42740.493055555555</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5">
         <v>32.103625428383403</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>35.208835663499798</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>708.01591994360399</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="5">
         <v>2</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J34" s="3">
@@ -2277,25 +2772,25 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A35" s="1">
+      <c r="A35" s="6">
         <v>42740.493055555555</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5">
         <v>32.102587987632504</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>35.207590211238298</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>693.10852031086995</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="5">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J35" s="3">
@@ -2333,38 +2828,38 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A36" s="1">
+      <c r="A36" s="6">
         <v>42740.493055555555</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36">
-        <v>32.103117024912997</v>
-      </c>
-      <c r="D36">
-        <v>35.209478093836402</v>
-      </c>
-      <c r="E36">
-        <v>704.76395210521298</v>
-      </c>
-      <c r="F36">
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>32.103148658443203</v>
+      </c>
+      <c r="D36" s="5">
+        <v>35.209685528808599</v>
+      </c>
+      <c r="E36" s="5">
+        <v>702.43160948224102</v>
+      </c>
+      <c r="F36" s="5">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" ref="J36:L36" si="31">ABS(C36:C68 - P36:P68)</f>
-        <v>5.8959684899662079E-5</v>
+        <v>2.7326154693696481E-5</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="31"/>
-        <v>1.1262241379483839E-4</v>
+        <v>9.4812558401713432E-5</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="31"/>
-        <v>1.6939033201489337</v>
+        <v>0.63843930282303063</v>
       </c>
       <c r="N36" s="1">
         <v>43074.493055555555</v>
